--- a/data_output/prism_passive/all_passive_out_length_SEE_Fuku_trial_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_SEE_Fuku_trial_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>446.57822902246551</v>
+        <v>446.57822901935936</v>
       </c>
       <c r="C2">
-        <v>408.14566789098126</v>
+        <v>408.14566790878126</v>
       </c>
       <c r="D2">
-        <v>370.21036837229281</v>
+        <v>370.21036837968563</v>
       </c>
       <c r="E2">
-        <v>410.5668884483959</v>
+        <v>410.56688843878089</v>
       </c>
       <c r="F2">
-        <v>397.1883441540341</v>
+        <v>397.18834415386004</v>
       </c>
       <c r="G2">
-        <v>412.17924584841683</v>
+        <v>412.17924586921038</v>
       </c>
       <c r="H2">
-        <v>430.09579096401734</v>
+        <v>430.09579099587444</v>
       </c>
       <c r="I2">
-        <v>470.54193415298033</v>
+        <v>470.54193414931024</v>
       </c>
       <c r="J2">
-        <v>410.17706420012018</v>
+        <v>410.17706419633998</v>
       </c>
       <c r="K2">
-        <v>428.34459660464029</v>
+        <v>428.34459661459846</v>
       </c>
       <c r="L2">
-        <v>458.04751388614</v>
+        <v>458.04751394153504</v>
       </c>
       <c r="M2">
-        <v>443.9093307898753</v>
+        <v>443.90933081830127</v>
       </c>
       <c r="N2">
-        <v>460.95383054435615</v>
+        <v>460.95383056622245</v>
       </c>
       <c r="O2">
-        <v>389.61793578442422</v>
+        <v>389.61793576387959</v>
       </c>
       <c r="P2">
-        <v>411.17200008452835</v>
+        <v>411.17200010849348</v>
       </c>
       <c r="Q2">
-        <v>475.02345962144</v>
+        <v>475.02345962934112</v>
       </c>
       <c r="R2">
-        <v>459.71363802671522</v>
+        <v>459.71363799849394</v>
       </c>
       <c r="S2">
-        <v>445.66387939666629</v>
+        <v>445.66387955752805</v>
       </c>
       <c r="T2">
-        <v>466.73956158201889</v>
+        <v>466.73956157541312</v>
       </c>
       <c r="U2">
-        <v>372.46982373680316</v>
+        <v>372.46982375034281</v>
       </c>
       <c r="V2">
-        <v>478.07872836949747</v>
+        <v>478.07872837147511</v>
       </c>
       <c r="W2">
-        <v>458.89658055501769</v>
+        <v>458.8965806563703</v>
       </c>
       <c r="X2">
-        <v>383.09487598747182</v>
+        <v>383.0948759804034</v>
       </c>
       <c r="Y2">
-        <v>368.27732342680349</v>
+        <v>368.27732344082921</v>
       </c>
       <c r="Z2">
-        <v>379.59174380038667</v>
+        <v>379.59174382041442</v>
       </c>
       <c r="AA2">
-        <v>437.93707830792022</v>
+        <v>437.93707822589738</v>
       </c>
       <c r="AB2">
-        <v>402.55975312632762</v>
+        <v>402.55975317688842</v>
       </c>
       <c r="AC2">
-        <v>372.32023686482273</v>
+        <v>372.32023689917094</v>
       </c>
       <c r="AD2">
-        <v>403.41174009990561</v>
+        <v>403.41174014475661</v>
       </c>
       <c r="AE2">
-        <v>399.14381769440354</v>
+        <v>399.14381769653988</v>
       </c>
       <c r="AF2">
-        <v>408.1631960241665</v>
+        <v>408.16319605524592</v>
       </c>
       <c r="AG2">
-        <v>431.18872948808684</v>
+        <v>431.18872953051527</v>
       </c>
       <c r="AH2">
-        <v>464.94140354150829</v>
+        <v>464.94140356427954</v>
       </c>
       <c r="AI2">
-        <v>399.97742102336917</v>
+        <v>399.97742119543648</v>
       </c>
       <c r="AJ2">
-        <v>429.83354786831171</v>
+        <v>429.83354790402655</v>
       </c>
       <c r="AK2">
-        <v>451.81765158413202</v>
+        <v>451.8176516044129</v>
       </c>
       <c r="AL2">
-        <v>445.49982452023175</v>
+        <v>445.49982456029119</v>
       </c>
       <c r="AM2">
-        <v>457.90149330013821</v>
+        <v>457.90149340365843</v>
       </c>
       <c r="AN2">
-        <v>385.30257185906891</v>
+        <v>385.30257189742673</v>
       </c>
       <c r="AO2">
-        <v>406.01917347745922</v>
+        <v>406.01917335559716</v>
       </c>
       <c r="AP2">
-        <v>468.02882849538673</v>
+        <v>468.02882852522839</v>
       </c>
       <c r="AQ2">
-        <v>464.06631226536672</v>
+        <v>464.06631234314534</v>
       </c>
       <c r="AR2">
-        <v>445.46319774613733</v>
+        <v>445.46319769850226</v>
       </c>
       <c r="AS2">
-        <v>471.9653587716449</v>
+        <v>471.96535884998781</v>
       </c>
       <c r="AT2">
-        <v>364.04613892295623</v>
+        <v>364.04613883676427</v>
       </c>
       <c r="AU2">
-        <v>470.69987892745064</v>
+        <v>470.69987898781579</v>
       </c>
       <c r="AV2">
-        <v>448.61464385958618</v>
+        <v>448.61464382561923</v>
       </c>
       <c r="AW2">
-        <v>383.17400270340352</v>
+        <v>383.17400280977381</v>
       </c>
       <c r="AX2">
-        <v>369.26943703816858</v>
+        <v>369.26943709601181</v>
       </c>
       <c r="AY2">
-        <v>377.18353148013671</v>
+        <v>377.18353152196829</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -673,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>440.95367324642814</v>
+        <v>440.95367338998602</v>
       </c>
       <c r="C3">
-        <v>425.27644350268912</v>
+        <v>425.27644351188616</v>
       </c>
       <c r="D3">
-        <v>348.34635848716874</v>
+        <v>348.34635856764959</v>
       </c>
       <c r="E3">
-        <v>406.50473966009179</v>
+        <v>406.50473967638743</v>
       </c>
       <c r="F3">
-        <v>402.65792384740428</v>
+        <v>402.65792386699508</v>
       </c>
       <c r="G3">
-        <v>401.74506771249048</v>
+        <v>401.7450677288881</v>
       </c>
       <c r="H3">
-        <v>427.6615010852185</v>
+        <v>427.66150107531593</v>
       </c>
       <c r="I3">
-        <v>460.16533380863564</v>
+        <v>460.16533382174907</v>
       </c>
       <c r="J3">
-        <v>409.01907271211195</v>
+        <v>409.01907275804325</v>
       </c>
       <c r="K3">
-        <v>410.51158020028834</v>
+        <v>410.51158020579169</v>
       </c>
       <c r="L3">
-        <v>446.66949666985403</v>
+        <v>446.66949669544363</v>
       </c>
       <c r="M3">
-        <v>442.60216146702334</v>
+        <v>442.60257173457262</v>
       </c>
       <c r="N3">
-        <v>463.12862074398402</v>
+        <v>463.12862074754423</v>
       </c>
       <c r="O3">
-        <v>393.9371555476726</v>
+        <v>393.93715554980275</v>
       </c>
       <c r="P3">
-        <v>414.87364775189451</v>
+        <v>414.87364779084493</v>
       </c>
       <c r="Q3">
-        <v>480.90797084034887</v>
+        <v>480.90797087408725</v>
       </c>
       <c r="R3">
-        <v>476.53000125017144</v>
+        <v>476.53000135572012</v>
       </c>
       <c r="S3">
-        <v>449.82510401985979</v>
+        <v>449.82510405040716</v>
       </c>
       <c r="T3">
-        <v>464.20375116805326</v>
+        <v>464.2037511945336</v>
       </c>
       <c r="U3">
-        <v>367.77490986689565</v>
+        <v>367.7749098954331</v>
       </c>
       <c r="V3">
-        <v>463.72992870872935</v>
+        <v>463.72992870184197</v>
       </c>
       <c r="W3">
-        <v>439.73402304113495</v>
+        <v>439.73402308494576</v>
       </c>
       <c r="X3">
-        <v>384.11079587010306</v>
+        <v>384.1107958840052</v>
       </c>
       <c r="Y3">
-        <v>358.1365253927172</v>
+        <v>358.1365254362745</v>
       </c>
       <c r="Z3">
-        <v>378.93359550542505</v>
+        <v>378.93359552481417</v>
       </c>
       <c r="AA3">
-        <v>441.49876228255437</v>
+        <v>441.49876226601759</v>
       </c>
       <c r="AB3">
-        <v>417.24401806936692</v>
+        <v>417.24401811535415</v>
       </c>
       <c r="AC3">
-        <v>357.94660512544363</v>
+        <v>357.94660521590083</v>
       </c>
       <c r="AD3">
-        <v>404.01134354666704</v>
+        <v>404.01134366763864</v>
       </c>
       <c r="AE3">
-        <v>398.98474840427667</v>
+        <v>398.98474849379585</v>
       </c>
       <c r="AF3">
-        <v>402.40928839481955</v>
+        <v>402.40928845647727</v>
       </c>
       <c r="AG3">
-        <v>426.0726866746798</v>
+        <v>426.07268671092186</v>
       </c>
       <c r="AH3">
-        <v>463.17704925710734</v>
+        <v>463.17704928620407</v>
       </c>
       <c r="AI3">
-        <v>395.2539294469583</v>
+        <v>395.25393049698971</v>
       </c>
       <c r="AJ3">
-        <v>425.2956364553516</v>
+        <v>425.29563653130305</v>
       </c>
       <c r="AK3">
-        <v>452.92895655478952</v>
+        <v>452.92895671188586</v>
       </c>
       <c r="AL3">
-        <v>442.07584050191667</v>
+        <v>442.07584056438645</v>
       </c>
       <c r="AM3">
-        <v>458.30069610725485</v>
+        <v>458.30069618978428</v>
       </c>
       <c r="AN3">
-        <v>397.11628232322056</v>
+        <v>397.11628234208996</v>
       </c>
       <c r="AO3">
-        <v>412.76048477657196</v>
+        <v>412.76048495472367</v>
       </c>
       <c r="AP3">
-        <v>479.72980192979225</v>
+        <v>479.72980196452704</v>
       </c>
       <c r="AQ3">
-        <v>468.37261938153489</v>
+        <v>468.37261942017187</v>
       </c>
       <c r="AR3">
-        <v>441.23547822365424</v>
+        <v>441.2354781766112</v>
       </c>
       <c r="AS3">
-        <v>478.50546618583223</v>
+        <v>478.50546616924646</v>
       </c>
       <c r="AT3">
-        <v>367.64955528554066</v>
+        <v>367.64955535832604</v>
       </c>
       <c r="AU3">
-        <v>478.31145543289938</v>
+        <v>478.31145552984458</v>
       </c>
       <c r="AV3">
-        <v>445.90428733405156</v>
+        <v>445.90428742634373</v>
       </c>
       <c r="AW3">
-        <v>388.11486649229113</v>
+        <v>388.11486729594225</v>
       </c>
       <c r="AX3">
-        <v>375.34229705892392</v>
+        <v>375.3422972529051</v>
       </c>
       <c r="AY3">
-        <v>373.12513882392767</v>
+        <v>373.12513886557213</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_length_SEE_Fuku_trial_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_SEE_Fuku_trial_max.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,62 +401,59 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>446.57822901935936</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>408.14566790878126</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>370.21036837968563</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>410.56688843878089</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>397.18834415386004</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>412.17924586921038</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>430.09579099587444</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>470.54193414931024</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>410.17706419633998</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>428.34459661459846</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>458.04751394153504</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>443.90933081830127</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>460.95383056622245</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>389.61793576387959</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>411.17200010849348</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>475.02345962934112</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>459.71363799849394</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>445.66387955752805</v>
+        <v>453.83291438818742</v>
       </c>
       <c r="T2">
         <v>466.73956157541312</v>
@@ -588,55 +477,55 @@
         <v>379.59174382041442</v>
       </c>
       <c r="AA2">
-        <v>437.93707822589738</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>402.55975317688842</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>372.32023689917094</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>403.41174014475661</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>399.14381769653988</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>408.16319605524592</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>431.18872953051527</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>464.94140356427954</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>399.97742119543648</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>429.83354790402655</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>451.8176516044129</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>445.49982456029119</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>457.90149340365843</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>385.30257189742673</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>406.01917335559716</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>468.02882852522839</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>464.06631234314534</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>445.46319769850226</v>
@@ -664,59 +553,56 @@
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>440.95367338998602</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>425.27644351188616</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>348.34635856764959</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>406.50473967638743</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>402.65792386699508</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>401.7450677288881</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>427.66150107531593</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>460.16533382174907</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>409.01907275804325</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>410.51158020579169</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>446.66949669544363</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>442.60257173457262</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>463.12862074754423</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>393.93715554980275</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>414.87364779084493</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>480.90797087408725</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>476.53000135572012</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>449.82510405040716</v>
@@ -743,55 +629,55 @@
         <v>378.93359552481417</v>
       </c>
       <c r="AA3">
-        <v>441.49876226601759</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>417.24401811535415</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>357.94660521590083</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>404.01134366763864</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>398.98474849379585</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>402.40928845647727</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>426.07268671092186</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>463.17704928620407</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>395.25393049698971</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>425.29563653130305</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>452.92895671188586</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>442.07584056438645</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>458.30069618978428</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>397.11628234208996</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>412.76048495472367</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>479.72980196452704</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>468.37261942017187</v>
+        <v>0</v>
       </c>
       <c r="AR3">
         <v>441.2354781766112</v>

--- a/data_output/prism_passive/all_passive_out_length_SEE_Fuku_trial_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_SEE_Fuku_trial_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>446.57822902246551</v>
+        <v>389.61793576387959</v>
       </c>
       <c r="C2">
-        <v>410.44964034291627</v>
+        <v>459.71363799849394</v>
       </c>
       <c r="D2">
-        <v>370.21036837229281</v>
+        <v>385.30257189742673</v>
       </c>
       <c r="E2">
-        <v>410.5668884483959</v>
+        <v>464.06631234314534</v>
       </c>
       <c r="F2">
         <v>397.1883441540341</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>440.95367324642814</v>
+        <v>388.3339396377682</v>
       </c>
       <c r="C3">
-        <v>425.27644350268912</v>
+        <v>476.53000135572012</v>
       </c>
       <c r="D3">
-        <v>348.34635848716874</v>
+        <v>395.4634356969558</v>
       </c>
       <c r="E3">
-        <v>406.50473966009179</v>
+        <v>468.18968998464879</v>
       </c>
       <c r="F3">
         <v>402.65792384740428</v>

--- a/data_output/prism_passive/all_passive_out_length_SEE_Fuku_trial_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_SEE_Fuku_trial_max.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>446.57822902246551</v>
+        <v>461.62263204731903</v>
       </c>
       <c r="C2">
-        <v>410.44964034291627</v>
+        <v>389.61793576387959</v>
       </c>
       <c r="D2">
-        <v>370.21036837229281</v>
+        <v>457.90149340365843</v>
       </c>
       <c r="E2">
-        <v>410.5668884483959</v>
+        <v>385.30257189742673</v>
       </c>
       <c r="F2">
         <v>397.1883441540341</v>
@@ -670,16 +665,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>440.95367324642814</v>
+        <v>463.12862074754423</v>
       </c>
       <c r="C3">
-        <v>425.27644350268912</v>
+        <v>388.3339396377682</v>
       </c>
       <c r="D3">
-        <v>348.34635848716874</v>
+        <v>458.30069618978428</v>
       </c>
       <c r="E3">
-        <v>401.287193895629</v>
+        <v>395.4634356969558</v>
       </c>
       <c r="F3">
         <v>402.65792384740428</v>

--- a/data_output/prism_passive/all_passive_out_length_SEE_Fuku_trial_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_SEE_Fuku_trial_max.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,151 +513,151 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>446.57822901935936</v>
+      </c>
+      <c r="C2">
+        <v>410.44964041234527</v>
+      </c>
+      <c r="D2">
+        <v>370.21036837968563</v>
+      </c>
+      <c r="E2">
+        <v>410.56688843878089</v>
+      </c>
+      <c r="F2">
+        <v>397.18834415386004</v>
+      </c>
+      <c r="G2">
+        <v>408.13249755199894</v>
+      </c>
+      <c r="H2">
+        <v>430.09579099587444</v>
+      </c>
+      <c r="I2">
+        <v>466.28928171598778</v>
+      </c>
+      <c r="J2">
+        <v>410.17706419633998</v>
+      </c>
+      <c r="K2">
+        <v>428.34459661459846</v>
+      </c>
+      <c r="L2">
+        <v>455.06015748164782</v>
+      </c>
+      <c r="M2">
+        <v>437.21819509709132</v>
+      </c>
+      <c r="N2">
         <v>461.62263204731903</v>
       </c>
-      <c r="C2">
+      <c r="O2">
         <v>389.61793576387959</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>409.77510729335438</v>
+      </c>
+      <c r="Q2">
+        <v>475.02345962934112</v>
+      </c>
+      <c r="R2">
+        <v>459.71363799849394</v>
+      </c>
+      <c r="T2">
+        <v>469.52893030119856</v>
+      </c>
+      <c r="U2">
+        <v>372.46982375034281</v>
+      </c>
+      <c r="V2">
+        <v>474.75960517361335</v>
+      </c>
+      <c r="W2">
+        <v>458.8965806563703</v>
+      </c>
+      <c r="X2">
+        <v>383.0948759804034</v>
+      </c>
+      <c r="Y2">
+        <v>368.27732344082921</v>
+      </c>
+      <c r="Z2">
+        <v>379.59174382041442</v>
+      </c>
+      <c r="AA2">
+        <v>437.93707822589738</v>
+      </c>
+      <c r="AB2">
+        <v>402.55975317688842</v>
+      </c>
+      <c r="AC2">
+        <v>372.32023689917094</v>
+      </c>
+      <c r="AD2">
+        <v>403.41174014475661</v>
+      </c>
+      <c r="AE2">
+        <v>399.14381769653988</v>
+      </c>
+      <c r="AF2">
+        <v>408.16319605524592</v>
+      </c>
+      <c r="AG2">
+        <v>431.18872953051527</v>
+      </c>
+      <c r="AH2">
+        <v>464.94140356427954</v>
+      </c>
+      <c r="AI2">
+        <v>399.97742119543648</v>
+      </c>
+      <c r="AJ2">
+        <v>429.83354790402655</v>
+      </c>
+      <c r="AK2">
+        <v>451.8176516044129</v>
+      </c>
+      <c r="AL2">
+        <v>445.49982456029119</v>
+      </c>
+      <c r="AM2">
         <v>457.90149340365843</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>385.30257189742673</v>
       </c>
-      <c r="F2">
-        <v>397.1883441540341</v>
-      </c>
-      <c r="G2">
-        <v>408.13249749103289</v>
-      </c>
-      <c r="H2">
-        <v>430.09579096401734</v>
-      </c>
-      <c r="I2">
-        <v>466.28928172629878</v>
-      </c>
-      <c r="J2">
-        <v>410.17706420012018</v>
-      </c>
-      <c r="K2">
-        <v>428.34459660464029</v>
-      </c>
-      <c r="L2">
-        <v>455.06015715976719</v>
-      </c>
-      <c r="M2">
-        <v>437.21819508903332</v>
-      </c>
-      <c r="N2">
-        <v>461.62263201471313</v>
-      </c>
-      <c r="O2">
-        <v>389.61793578442422</v>
-      </c>
-      <c r="P2">
-        <v>409.77510725520204</v>
-      </c>
-      <c r="Q2">
-        <v>475.02345962144</v>
-      </c>
-      <c r="R2">
-        <v>459.71363802671522</v>
-      </c>
-      <c r="T2">
-        <v>469.52893030846064</v>
-      </c>
-      <c r="U2">
-        <v>372.46982373680316</v>
-      </c>
-      <c r="V2">
-        <v>474.75960516544336</v>
-      </c>
-      <c r="W2">
-        <v>458.89658055501769</v>
-      </c>
-      <c r="X2">
-        <v>383.09487598747182</v>
-      </c>
-      <c r="Y2">
-        <v>368.27732342680349</v>
-      </c>
-      <c r="Z2">
-        <v>379.59174380038667</v>
-      </c>
-      <c r="AA2">
-        <v>437.93707830792022</v>
-      </c>
-      <c r="AB2">
-        <v>402.55975312632762</v>
-      </c>
-      <c r="AC2">
-        <v>372.32023686482273</v>
-      </c>
-      <c r="AD2">
-        <v>403.41174009990561</v>
-      </c>
-      <c r="AE2">
-        <v>399.14381769440354</v>
-      </c>
-      <c r="AF2">
-        <v>408.1631960241665</v>
-      </c>
-      <c r="AG2">
-        <v>431.18872948808684</v>
-      </c>
-      <c r="AH2">
-        <v>464.94140354150829</v>
-      </c>
-      <c r="AI2">
-        <v>399.97742102336917</v>
-      </c>
-      <c r="AJ2">
-        <v>429.83354786831171</v>
-      </c>
-      <c r="AK2">
-        <v>451.81765158413202</v>
-      </c>
-      <c r="AL2">
-        <v>445.49982452023175</v>
-      </c>
-      <c r="AM2">
-        <v>457.90149330013821</v>
-      </c>
-      <c r="AN2">
-        <v>385.30257185906891</v>
-      </c>
       <c r="AO2">
-        <v>406.01917347745922</v>
+        <v>406.01917335559716</v>
       </c>
       <c r="AP2">
-        <v>465.88659739537377</v>
+        <v>465.88659743463268</v>
       </c>
       <c r="AQ2">
-        <v>464.06631226536672</v>
+        <v>464.06631234314534</v>
       </c>
       <c r="AR2">
-        <v>445.46319774613733</v>
+        <v>445.46319769850226</v>
       </c>
       <c r="AS2">
-        <v>471.9653587716449</v>
+        <v>471.96535884998781</v>
       </c>
       <c r="AT2">
-        <v>364.04613892295623</v>
+        <v>364.04613883676427</v>
       </c>
       <c r="AU2">
-        <v>476.76911355797671</v>
+        <v>476.76911369272534</v>
       </c>
       <c r="AV2">
-        <v>448.61464385958618</v>
+        <v>448.61464382561923</v>
       </c>
       <c r="AW2">
-        <v>383.17400270340352</v>
+        <v>383.17400280977381</v>
       </c>
       <c r="AX2">
-        <v>369.26943703816858</v>
+        <v>369.26943709601181</v>
       </c>
       <c r="AY2">
-        <v>377.18353148013671</v>
+        <v>377.18353152196829</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -665,154 +665,154 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>440.95367338998602</v>
+      </c>
+      <c r="C3">
+        <v>425.27644351188616</v>
+      </c>
+      <c r="D3">
+        <v>348.34635856764959</v>
+      </c>
+      <c r="E3">
+        <v>401.28719393158804</v>
+      </c>
+      <c r="F3">
+        <v>402.65792386699508</v>
+      </c>
+      <c r="G3">
+        <v>401.7450677288881</v>
+      </c>
+      <c r="H3">
+        <v>427.66150107531593</v>
+      </c>
+      <c r="I3">
+        <v>460.16533382174907</v>
+      </c>
+      <c r="J3">
+        <v>409.01907275804325</v>
+      </c>
+      <c r="K3">
+        <v>411.53666628497223</v>
+      </c>
+      <c r="L3">
+        <v>446.66949669544363</v>
+      </c>
+      <c r="M3">
+        <v>445.73812244912659</v>
+      </c>
+      <c r="N3">
         <v>463.12862074754423</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>388.3339396377682</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>414.87364779084493</v>
+      </c>
+      <c r="Q3">
+        <v>480.90797087408725</v>
+      </c>
+      <c r="R3">
+        <v>476.53000135572012</v>
+      </c>
+      <c r="S3">
+        <v>449.82510405040716</v>
+      </c>
+      <c r="T3">
+        <v>464.2037511945336</v>
+      </c>
+      <c r="U3">
+        <v>367.7749098954331</v>
+      </c>
+      <c r="V3">
+        <v>461.92171305033548</v>
+      </c>
+      <c r="W3">
+        <v>439.74700313931248</v>
+      </c>
+      <c r="X3">
+        <v>384.1107958840052</v>
+      </c>
+      <c r="Y3">
+        <v>358.1365254362745</v>
+      </c>
+      <c r="Z3">
+        <v>378.93359552481417</v>
+      </c>
+      <c r="AA3">
+        <v>441.49876226601759</v>
+      </c>
+      <c r="AB3">
+        <v>417.24401811535415</v>
+      </c>
+      <c r="AC3">
+        <v>357.94660521590083</v>
+      </c>
+      <c r="AD3">
+        <v>404.01134366763864</v>
+      </c>
+      <c r="AE3">
+        <v>398.98474849379585</v>
+      </c>
+      <c r="AF3">
+        <v>402.40928845647727</v>
+      </c>
+      <c r="AG3">
+        <v>426.07268671092186</v>
+      </c>
+      <c r="AH3">
+        <v>463.17704928620407</v>
+      </c>
+      <c r="AI3">
+        <v>417.5567538356392</v>
+      </c>
+      <c r="AJ3">
+        <v>425.29563653130305</v>
+      </c>
+      <c r="AK3">
+        <v>452.92895671188586</v>
+      </c>
+      <c r="AL3">
+        <v>442.07584056438645</v>
+      </c>
+      <c r="AM3">
         <v>458.30069618978428</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>395.4634356969558</v>
       </c>
-      <c r="F3">
-        <v>402.65792384740428</v>
-      </c>
-      <c r="G3">
-        <v>401.74506771249048</v>
-      </c>
-      <c r="H3">
-        <v>427.6615010852185</v>
-      </c>
-      <c r="I3">
-        <v>460.16533380863564</v>
-      </c>
-      <c r="J3">
-        <v>409.01907271211195</v>
-      </c>
-      <c r="K3">
-        <v>411.53666628261277</v>
-      </c>
-      <c r="L3">
-        <v>446.66949666985403</v>
-      </c>
-      <c r="M3">
-        <v>445.73794683893794</v>
-      </c>
-      <c r="N3">
-        <v>463.12862074398402</v>
-      </c>
-      <c r="O3">
-        <v>388.333939635984</v>
-      </c>
-      <c r="P3">
-        <v>414.87364775189451</v>
-      </c>
-      <c r="Q3">
-        <v>480.90797084034887</v>
-      </c>
-      <c r="R3">
-        <v>476.53000125017144</v>
-      </c>
-      <c r="S3">
-        <v>449.82510401985979</v>
-      </c>
-      <c r="T3">
-        <v>464.20375116805326</v>
-      </c>
-      <c r="U3">
-        <v>367.77490986689565</v>
-      </c>
-      <c r="V3">
-        <v>461.92171318827457</v>
-      </c>
-      <c r="W3">
-        <v>439.74700313478746</v>
-      </c>
-      <c r="X3">
-        <v>384.11079587010306</v>
-      </c>
-      <c r="Y3">
-        <v>358.1365253927172</v>
-      </c>
-      <c r="Z3">
-        <v>378.93359550542505</v>
-      </c>
-      <c r="AA3">
-        <v>441.49876228255437</v>
-      </c>
-      <c r="AB3">
-        <v>417.24401806936692</v>
-      </c>
-      <c r="AC3">
-        <v>357.94660512544363</v>
-      </c>
-      <c r="AD3">
-        <v>404.01134354666704</v>
-      </c>
-      <c r="AE3">
-        <v>398.98474840427667</v>
-      </c>
-      <c r="AF3">
-        <v>402.40928839481955</v>
-      </c>
-      <c r="AG3">
-        <v>426.0726866746798</v>
-      </c>
-      <c r="AH3">
-        <v>463.17704925710734</v>
-      </c>
-      <c r="AI3">
-        <v>417.55675362416559</v>
-      </c>
-      <c r="AJ3">
-        <v>425.2956364553516</v>
-      </c>
-      <c r="AK3">
-        <v>452.92895655478952</v>
-      </c>
-      <c r="AL3">
-        <v>442.07584050191667</v>
-      </c>
-      <c r="AM3">
-        <v>458.30069610725485</v>
-      </c>
-      <c r="AN3">
-        <v>395.46343568311903</v>
-      </c>
       <c r="AO3">
-        <v>412.76048477657196</v>
+        <v>412.76048495472367</v>
       </c>
       <c r="AP3">
-        <v>479.72980192979225</v>
+        <v>479.72980196452704</v>
       </c>
       <c r="AQ3">
-        <v>468.18968995886905</v>
+        <v>468.18968998464879</v>
       </c>
       <c r="AR3">
-        <v>441.23547822365424</v>
+        <v>441.2354781766112</v>
       </c>
       <c r="AS3">
-        <v>478.50546618583223</v>
+        <v>478.50546616924646</v>
       </c>
       <c r="AT3">
-        <v>367.64955528554066</v>
+        <v>367.64955535832604</v>
       </c>
       <c r="AU3">
-        <v>477.42738657376776</v>
+        <v>477.4273868415342</v>
       </c>
       <c r="AV3">
-        <v>445.90428733405156</v>
+        <v>445.90428742634373</v>
       </c>
       <c r="AW3">
-        <v>388.11486649229113</v>
+        <v>388.11486729594225</v>
       </c>
       <c r="AX3">
-        <v>375.34229705892392</v>
+        <v>375.3422972529051</v>
       </c>
       <c r="AY3">
-        <v>373.12513882392767</v>
+        <v>373.12513886557213</v>
       </c>
     </row>
   </sheetData>
